--- a/CB-202108.xlsx
+++ b/CB-202108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CE22B-29F5-4547-987D-1A850E483317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D875B33-1F5B-45EB-8ADE-CBDBB635B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>收入</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>收益额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>花王转债</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1031,7 +1035,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,7 +1043,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1734,7 +1738,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C11ACB-8B38-4D4B-BC5F-F9D9DA70C16D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2068,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2222,7 @@
       </c>
       <c r="P3" s="50">
         <f t="shared" ref="P3:P23" si="0">M3/$M$33</f>
-        <v>5.6088832583497103E-2</v>
+        <v>5.3589348341109649E-2</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="S3" s="44"/>
@@ -2268,7 +2272,7 @@
       </c>
       <c r="P4" s="50">
         <f t="shared" si="0"/>
-        <v>5.405859009133384E-2</v>
+        <v>5.1649579458106165E-2</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="S4" s="51"/>
@@ -2321,7 +2325,7 @@
       </c>
       <c r="P5" s="50">
         <f t="shared" si="0"/>
-        <v>5.5379601206234745E-2</v>
+        <v>5.2911722411313769E-2</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="S5" s="51"/>
@@ -2371,7 +2375,7 @@
       </c>
       <c r="P6" s="50">
         <f t="shared" si="0"/>
-        <v>5.3327702794155066E-2</v>
+        <v>5.0951262660224907E-2</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="S6" s="51"/>
@@ -2419,7 +2423,7 @@
       </c>
       <c r="P7" s="50">
         <f t="shared" si="0"/>
-        <v>0.10527267510164748</v>
+        <v>0.10058141339319891</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="S7" s="51"/>
@@ -2470,7 +2474,7 @@
       </c>
       <c r="P8" s="50">
         <f t="shared" si="0"/>
-        <v>6.090727476489792E-2</v>
+        <v>5.819306649010459E-2</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="S8" s="51"/>
@@ -2518,7 +2522,7 @@
       </c>
       <c r="P9" s="50">
         <f t="shared" si="0"/>
-        <v>5.7441244782276794E-2</v>
+        <v>5.488149305304104E-2</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="S9" s="51"/>
@@ -2566,7 +2570,7 @@
       </c>
       <c r="P10" s="50">
         <f t="shared" si="0"/>
-        <v>5.3820374972253344E-2</v>
+        <v>5.1421979909167082E-2</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="S10" s="51"/>
@@ -2609,7 +2613,7 @@
       </c>
       <c r="P11" s="50">
         <f t="shared" si="0"/>
-        <v>5.5303805486527309E-2</v>
+        <v>5.283930437301497E-2</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="S11" s="51"/>
@@ -2657,7 +2661,7 @@
       </c>
       <c r="P12" s="50">
         <f t="shared" si="0"/>
-        <v>5.8254424575137916E-2</v>
+        <v>5.5658435149646704E-2</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="S12" s="51"/>
@@ -2700,7 +2704,7 @@
       </c>
       <c r="P13" s="50">
         <f t="shared" si="0"/>
-        <v>6.154612440243197E-2</v>
+        <v>5.8803447098623028E-2</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="S13" s="51"/>
@@ -2748,7 +2752,7 @@
       </c>
       <c r="P14" s="50">
         <f t="shared" si="0"/>
-        <v>5.6283735862744773E-2</v>
+        <v>5.3775566153877977E-2</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="S14" s="51"/>
@@ -2796,7 +2800,7 @@
       </c>
       <c r="P15" s="50">
         <f t="shared" si="0"/>
-        <v>0.11856616154233461</v>
+        <v>0.11328250276740361</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="S15" s="51"/>
@@ -2848,7 +2852,7 @@
       </c>
       <c r="P16" s="50">
         <f t="shared" si="0"/>
-        <v>5.0008933066965522E-2</v>
+        <v>4.7780387126141875E-2</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="S16" s="51"/>
@@ -2900,7 +2904,7 @@
       </c>
       <c r="P17" s="50">
         <f t="shared" si="0"/>
-        <v>5.1687266860487149E-2</v>
+        <v>4.9383929402758091E-2</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="S17" s="51"/>
@@ -2950,16 +2954,22 @@
       </c>
       <c r="P18" s="50">
         <f t="shared" si="0"/>
-        <v>5.2053251907074445E-2</v>
+        <v>4.9733605073400855E-2</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B19" s="31"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="62">
+        <v>44418</v>
+      </c>
+      <c r="D19" s="46">
+        <v>113595</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F19" s="27">
         <v>10</v>
       </c>
@@ -2971,26 +2981,30 @@
         <v>0</v>
       </c>
       <c r="I19" s="27"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="J19" s="23">
+        <v>86.15</v>
+      </c>
+      <c r="K19" s="23">
+        <v>86.13</v>
+      </c>
       <c r="L19" s="23">
         <v>10</v>
       </c>
       <c r="M19" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="50" t="e">
+        <v>861.5</v>
+      </c>
+      <c r="N19" s="50">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.322071287589717E-4</v>
       </c>
       <c r="O19" s="22">
         <f>(J19-K19)*L19</f>
-        <v>0</v>
+        <v>0.20000000000010232</v>
       </c>
       <c r="P19" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4562957138866759E-2</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="S19" s="51"/>
@@ -3391,20 +3405,20 @@
       <c r="J33" s="24"/>
       <c r="K33" s="63">
         <f>SUMPRODUCT((K3:K31)*(L3:L31))</f>
-        <v>17731.96</v>
+        <v>18593.259999999998</v>
       </c>
       <c r="L33" s="64"/>
       <c r="M33" s="45">
         <f>SUM(M3:M32)</f>
-        <v>18470.7</v>
+        <v>19332.2</v>
       </c>
       <c r="N33" s="50">
         <f>(M33-K33)/K33</f>
-        <v>4.1661497093384015E-2</v>
+        <v>3.9742358252399114E-2</v>
       </c>
       <c r="O33" s="38">
         <f>SUM(O3:O32)</f>
-        <v>738.7399999999999</v>
+        <v>738.94</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="18"/>
@@ -3963,17 +3977,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId4" name="Control 12">
+        <control shapeId="3073" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -3983,13 +3997,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3084" r:id="rId4" name="Control 12"/>
+        <control shapeId="3073" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId6" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -3998,47 +4012,22 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3083" r:id="rId6" name="Control 11"/>
+        <control shapeId="3074" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId7" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3082" r:id="rId7" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId8" name="Control 9">
+        <control shapeId="3075" r:id="rId8" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4058,12 +4047,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId8" name="Control 9"/>
+        <control shapeId="3075" r:id="rId8" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId10" name="Control 8">
+        <control shapeId="3076" r:id="rId10" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4083,12 +4072,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId10" name="Control 8"/>
+        <control shapeId="3076" r:id="rId10" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId11" name="Control 7">
+        <control shapeId="3077" r:id="rId11" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4108,7 +4097,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId11" name="Control 7"/>
+        <control shapeId="3077" r:id="rId11" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4138,7 +4127,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId13" name="Control 5">
+        <control shapeId="3079" r:id="rId13" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4158,12 +4147,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId13" name="Control 5"/>
+        <control shapeId="3079" r:id="rId13" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId14" name="Control 4">
+        <control shapeId="3080" r:id="rId14" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4183,12 +4172,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId14" name="Control 4"/>
+        <control shapeId="3080" r:id="rId14" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId15" name="Control 3">
+        <control shapeId="3081" r:id="rId15" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4208,13 +4197,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId15" name="Control 3"/>
+        <control shapeId="3081" r:id="rId15" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId16" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId17">
+        <control shapeId="3082" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4223,32 +4212,7 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId16" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId18" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -4258,7 +4222,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId18" name="Control 1"/>
+        <control shapeId="3082" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3083" r:id="rId17" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3083" r:id="rId17" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3084" r:id="rId18" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3084" r:id="rId18" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/CB-202108.xlsx
+++ b/CB-202108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D875B33-1F5B-45EB-8ADE-CBDBB635B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98831EE3-4115-4F58-A459-5A4CC244C34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>收入</t>
   </si>
@@ -193,14 +193,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>城地</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>亚药转债</t>
-  </si>
-  <si>
-    <t>城地转债</t>
   </si>
   <si>
     <t>国城转债</t>
@@ -259,33 +252,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1、搜特转债，偏离-18%，收盘76.2</t>
-  </si>
-  <si>
-    <t>2、文科转债，偏离-7%，收盘98.0</t>
-  </si>
-  <si>
-    <t>3、亚药转债，偏离-7%，收盘80.0</t>
-  </si>
-  <si>
-    <t>4、广汇转债，偏离-6%，收盘93.2</t>
-  </si>
-  <si>
-    <t>5、本钢转债，偏离-6%，收盘104.0</t>
-  </si>
-  <si>
-    <t>6、鸿达转债，偏离-6%，收盘109.0</t>
-  </si>
-  <si>
-    <t>7、利群转债，偏离-5%，收盘101.0</t>
-  </si>
-  <si>
-    <t>8、孚日转债，偏离-4%，收盘103.6</t>
-  </si>
-  <si>
-    <t>9、靖远转债，偏离-3%，收盘103.1</t>
-  </si>
-  <si>
     <t>128127 </t>
   </si>
   <si>
@@ -307,6 +273,59 @@
   <si>
     <t>花王转债</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻泰转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>城地转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>110052 </t>
+  </si>
+  <si>
+    <t>贵广转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、搜特转债，偏离-8%，收盘101.7</t>
+  </si>
+  <si>
+    <t>2、文科转债，偏离-7%，收盘98.1</t>
+  </si>
+  <si>
+    <t>3、孚日转债，偏离-3%，收盘105.0</t>
+  </si>
+  <si>
+    <t>4、青农转债，偏离-2%，收盘105.9</t>
+  </si>
+  <si>
+    <t>5、广汇转债，偏离-2%，收盘98.2</t>
+  </si>
+  <si>
+    <t>6、东湖转债，偏离-2%，收盘106.9</t>
+  </si>
+  <si>
+    <t>7、利群转债，偏离-1%，收盘106.8</t>
+  </si>
+  <si>
+    <t>9、绿茵转债，偏离0%，收盘105.1</t>
+  </si>
+  <si>
+    <t>8、紫银转债，偏离-1%，收盘102.7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫银转债</t>
+  </si>
+  <si>
+    <t>鲁泰转债</t>
   </si>
 </sst>
 </file>
@@ -445,7 +464,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEC88"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -886,8 +911,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -904,10 +927,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -924,6 +943,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,27 +1005,61 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1035,7 +1096,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,7 +1104,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,7 +1150,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1138,8 +1199,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1189,7 +1250,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1239,7 +1300,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1289,7 +1350,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1339,7 +1400,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1389,7 +1450,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1439,7 +1500,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1489,7 +1550,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1539,7 +1600,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1589,7 +1650,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1639,7 +1700,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1676,94 +1737,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542429</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122999</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181850" y="5257800"/>
-          <a:ext cx="3971429" cy="6609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>199519</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>74792</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11563350" y="0"/>
-          <a:ext cx="4047619" cy="11266667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2064,11 +2037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2076,8 +2049,8 @@
     <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="7"/>
     <col min="3" max="3" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="7"/>
+    <col min="4" max="4" width="8" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="52"/>
     <col min="6" max="6" width="8.75" style="29"/>
     <col min="7" max="7" width="8.75" style="43"/>
     <col min="8" max="8" width="8.75" style="29"/>
@@ -2094,47 +2067,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="69" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="76"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
@@ -2168,24 +2141,24 @@
       <c r="P2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="70"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="66"/>
+      <c r="S2" s="64"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="47">
         <v>44385</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="80">
         <v>128117</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="80" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="26">
@@ -2200,7 +2173,7 @@
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="23">
-        <v>103.6</v>
+        <v>103.938</v>
       </c>
       <c r="K3" s="23">
         <v>101.267</v>
@@ -2210,32 +2183,32 @@
       </c>
       <c r="M3" s="22">
         <f>J3*L3</f>
-        <v>1036</v>
-      </c>
-      <c r="N3" s="50">
+        <v>1039.3800000000001</v>
+      </c>
+      <c r="N3" s="48">
         <f>(J3-K3)/K3</f>
-        <v>2.3038107182003994E-2</v>
+        <v>2.6375818381111384E-2</v>
       </c>
       <c r="O3" s="22">
         <f>(J3-K3)*L3</f>
-        <v>23.329999999999984</v>
-      </c>
-      <c r="P3" s="50">
-        <f t="shared" ref="P3:P23" si="0">M3/$M$33</f>
-        <v>5.3589348341109649E-2</v>
+        <v>26.710000000000065</v>
+      </c>
+      <c r="P3" s="48">
+        <f t="shared" ref="P3:P28" si="0">M3/$M$38</f>
+        <v>4.5189786407412419E-2</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="S3" s="44"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <v>44385</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="80">
         <v>113584</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="80" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="27">
@@ -2245,12 +2218,12 @@
         <v>98.03</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" ref="H4:H21" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H22" si="1">F4*G4</f>
         <v>980.3</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="23">
-        <v>99.85</v>
+        <v>100.6</v>
       </c>
       <c r="K4" s="23">
         <v>98.05</v>
@@ -2259,36 +2232,36 @@
         <v>10</v>
       </c>
       <c r="M4" s="22">
-        <f t="shared" ref="M4:M21" si="2">J4*L4</f>
-        <v>998.5</v>
-      </c>
-      <c r="N4" s="50">
-        <f t="shared" ref="N4:N32" si="3">(J4-K4)/K4</f>
-        <v>1.8357980622131537E-2</v>
+        <f t="shared" ref="M4:M22" si="2">J4*L4</f>
+        <v>1006</v>
+      </c>
+      <c r="N4" s="48">
+        <f t="shared" ref="N4:N37" si="3">(J4-K4)/K4</f>
+        <v>2.6007139214686358E-2</v>
       </c>
       <c r="O4" s="22">
-        <f t="shared" ref="O4:O27" si="4">(J4-K4)*L4</f>
-        <v>17.999999999999972</v>
-      </c>
-      <c r="P4" s="50">
+        <f t="shared" ref="O4:O32" si="4">(J4-K4)*L4</f>
+        <v>25.499999999999972</v>
+      </c>
+      <c r="P4" s="48">
         <f t="shared" si="0"/>
-        <v>5.1649579458106165E-2</v>
+        <v>4.3738502882349949E-2</v>
       </c>
       <c r="Q4" s="15"/>
-      <c r="S4" s="51"/>
-      <c r="W4" s="56" t="s">
+      <c r="S4" s="49"/>
+      <c r="W4" s="52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
-      <c r="C5" s="49">
+      <c r="C5" s="47">
         <v>44385</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="80">
         <v>113036</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="80" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="27">
@@ -2303,7 +2276,7 @@
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="23">
-        <v>102.29</v>
+        <v>105.95</v>
       </c>
       <c r="K5" s="23">
         <v>100.94</v>
@@ -2313,32 +2286,32 @@
       </c>
       <c r="M5" s="22">
         <f t="shared" si="2"/>
-        <v>1022.9000000000001</v>
-      </c>
-      <c r="N5" s="50">
+        <v>1059.5</v>
+      </c>
+      <c r="N5" s="48">
         <f t="shared" si="3"/>
-        <v>1.337428175153565E-2</v>
+        <v>4.9633445611254261E-2</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" si="4"/>
-        <v>13.500000000000085</v>
-      </c>
-      <c r="P5" s="50">
+        <v>50.100000000000051</v>
+      </c>
+      <c r="P5" s="48">
         <f t="shared" si="0"/>
-        <v>5.2911722411313769E-2</v>
+        <v>4.6064556465059414E-2</v>
       </c>
       <c r="Q5" s="15"/>
-      <c r="S5" s="51"/>
+      <c r="S5" s="49"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
-      <c r="C6" s="49">
+      <c r="C6" s="47">
         <v>44385</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="81">
         <v>128132</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="80" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="27">
@@ -2353,7 +2326,7 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="23">
-        <v>98.5</v>
+        <v>100.035</v>
       </c>
       <c r="K6" s="23">
         <v>95.771000000000001</v>
@@ -2363,30 +2336,30 @@
       </c>
       <c r="M6" s="22">
         <f t="shared" si="2"/>
-        <v>985</v>
-      </c>
-      <c r="N6" s="50">
+        <v>1000.3499999999999</v>
+      </c>
+      <c r="N6" s="48">
         <f t="shared" si="3"/>
-        <v>2.8495055914629679E-2</v>
+        <v>4.4522872268223115E-2</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="4"/>
-        <v>27.289999999999992</v>
-      </c>
-      <c r="P6" s="50">
+        <v>42.639999999999958</v>
+      </c>
+      <c r="P6" s="48">
         <f t="shared" si="0"/>
-        <v>5.0951262660224907E-2</v>
+        <v>4.3492854232960995E-2</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="S6" s="51"/>
+      <c r="S6" s="49"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="80">
         <v>128044</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="80" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="27">
@@ -2401,43 +2374,43 @@
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
-        <v>97.222999999999999</v>
+        <v>98.287999999999997</v>
       </c>
       <c r="K7" s="23">
-        <v>97.34</v>
+        <v>96.34</v>
       </c>
       <c r="L7" s="23">
         <v>20</v>
       </c>
       <c r="M7" s="22">
         <f t="shared" ref="M7:M15" si="6">J7*L7</f>
-        <v>1944.46</v>
-      </c>
-      <c r="N7" s="50">
+        <v>1965.76</v>
+      </c>
+      <c r="N7" s="48">
         <f t="shared" ref="N7:N15" si="7">(J7-K7)/K7</f>
-        <v>-1.2019724676392482E-3</v>
+        <v>2.0220053975503353E-2</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O15" si="8">(J7-K7)*L7</f>
-        <v>-2.3400000000000887</v>
-      </c>
-      <c r="P7" s="50">
+        <v>38.959999999999866</v>
+      </c>
+      <c r="P7" s="48">
         <f t="shared" si="0"/>
-        <v>0.10058141339319891</v>
+        <v>8.546659982704595E-2</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="S7" s="51"/>
+      <c r="S7" s="49"/>
       <c r="W7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46">
+      <c r="C8" s="47"/>
+      <c r="D8" s="80">
         <v>127039</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="80" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="27">
@@ -2452,7 +2425,7 @@
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="23">
-        <v>112.5</v>
+        <v>113.55</v>
       </c>
       <c r="K8" s="23">
         <v>100</v>
@@ -2462,30 +2435,30 @@
       </c>
       <c r="M8" s="22">
         <f t="shared" si="6"/>
-        <v>1125</v>
-      </c>
-      <c r="N8" s="50">
+        <v>1135.5</v>
+      </c>
+      <c r="N8" s="48">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>0.13549999999999998</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" si="8"/>
-        <v>125</v>
-      </c>
-      <c r="P8" s="50">
+        <v>135.49999999999997</v>
+      </c>
+      <c r="P8" s="48">
         <f t="shared" si="0"/>
-        <v>5.819306649010459E-2</v>
+        <v>4.9368856881618649E-2</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="S8" s="51"/>
+      <c r="S8" s="49"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="46">
+      <c r="C9" s="47"/>
+      <c r="D9" s="80">
         <v>127003</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="80" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="27">
@@ -2500,7 +2473,7 @@
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="23">
-        <v>106.098</v>
+        <v>107.119</v>
       </c>
       <c r="K9" s="23">
         <v>102.126</v>
@@ -2510,31 +2483,31 @@
       </c>
       <c r="M9" s="22">
         <f t="shared" si="6"/>
-        <v>1060.98</v>
-      </c>
-      <c r="N9" s="50">
+        <v>1071.19</v>
+      </c>
+      <c r="N9" s="48">
         <f t="shared" si="7"/>
-        <v>3.8893132013395157E-2</v>
+        <v>4.8890586138691371E-2</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="8"/>
-        <v>39.719999999999942</v>
-      </c>
-      <c r="P9" s="50">
+        <v>49.92999999999995</v>
+      </c>
+      <c r="P9" s="48">
         <f t="shared" si="0"/>
-        <v>5.488149305304104E-2</v>
+        <v>4.6572810042290698E-2</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="S9" s="51"/>
+      <c r="S9" s="49"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="31"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="14">
+      <c r="C10" s="47"/>
+      <c r="D10" s="80">
         <v>113569</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>56</v>
+      <c r="E10" s="80" t="s">
+        <v>54</v>
       </c>
       <c r="F10" s="27">
         <v>10</v>
@@ -2548,7 +2521,7 @@
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="23">
-        <v>99.41</v>
+        <v>99.92</v>
       </c>
       <c r="K10" s="23">
         <v>99.6</v>
@@ -2558,31 +2531,31 @@
       </c>
       <c r="M10" s="22">
         <f>J10*L10</f>
-        <v>994.09999999999991</v>
-      </c>
-      <c r="N10" s="50">
+        <v>999.2</v>
+      </c>
+      <c r="N10" s="48">
         <f>(J10-K10)/K10</f>
-        <v>-1.9076305220883307E-3</v>
+        <v>3.2128514056225643E-3</v>
       </c>
       <c r="O10" s="22">
         <f>(J10-K10)*L10</f>
-        <v>-1.8999999999999773</v>
-      </c>
-      <c r="P10" s="50">
+        <v>3.2000000000000739</v>
+      </c>
+      <c r="P10" s="48">
         <f t="shared" si="0"/>
-        <v>5.1421979909167082E-2</v>
+        <v>4.3442854950342016E-2</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="S10" s="51"/>
+      <c r="S10" s="49"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="57"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="14">
+      <c r="B11" s="53"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="80">
         <v>110064</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>55</v>
+      <c r="E11" s="80" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="27">
         <v>10</v>
@@ -2591,7 +2564,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
       <c r="J11" s="23">
-        <v>102.15</v>
+        <v>104.91</v>
       </c>
       <c r="K11" s="23">
         <v>97.01</v>
@@ -2601,30 +2574,30 @@
       </c>
       <c r="M11" s="22">
         <f>J11*L11</f>
-        <v>1021.5</v>
-      </c>
-      <c r="N11" s="50">
+        <v>1049.0999999999999</v>
+      </c>
+      <c r="N11" s="48">
         <f>(J11-K11)/K11</f>
-        <v>5.2984228430058761E-2</v>
+        <v>8.1434903618183604E-2</v>
       </c>
       <c r="O11" s="22">
         <f>(J11-K11)*L11</f>
-        <v>51.400000000000006</v>
-      </c>
-      <c r="P11" s="50">
+        <v>78.999999999999915</v>
+      </c>
+      <c r="P11" s="48">
         <f t="shared" si="0"/>
-        <v>5.283930437301497E-2</v>
+        <v>4.5612389039635513E-2</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="S11" s="51"/>
+      <c r="S11" s="49"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="46">
+      <c r="C12" s="47"/>
+      <c r="D12" s="80">
         <v>123023</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="80" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="27">
@@ -2639,7 +2612,7 @@
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="23">
-        <v>107.6</v>
+        <v>110.5</v>
       </c>
       <c r="K12" s="23">
         <v>98.131</v>
@@ -2649,31 +2622,31 @@
       </c>
       <c r="M12" s="22">
         <f t="shared" si="6"/>
-        <v>1076</v>
-      </c>
-      <c r="N12" s="50">
+        <v>1105</v>
+      </c>
+      <c r="N12" s="48">
         <f t="shared" si="7"/>
-        <v>9.6493462820107748E-2</v>
+        <v>0.12604579592585421</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" si="8"/>
-        <v>94.689999999999941</v>
-      </c>
-      <c r="P12" s="50">
+        <v>123.69</v>
+      </c>
+      <c r="P12" s="48">
         <f t="shared" si="0"/>
-        <v>5.5658435149646704E-2</v>
+        <v>4.8042788951288953E-2</v>
       </c>
       <c r="Q12" s="15"/>
-      <c r="S12" s="51"/>
+      <c r="S12" s="49"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="46">
+      <c r="B13" s="53"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="80">
         <v>113574</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>57</v>
+      <c r="E13" s="80" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="27">
         <v>10</v>
@@ -2682,7 +2655,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
       <c r="J13" s="23">
-        <v>113.68</v>
+        <v>112.4</v>
       </c>
       <c r="K13" s="23">
         <v>98.19</v>
@@ -2692,31 +2665,31 @@
       </c>
       <c r="M13" s="22">
         <f t="shared" si="6"/>
-        <v>1136.8000000000002</v>
-      </c>
-      <c r="N13" s="50">
+        <v>1124</v>
+      </c>
+      <c r="N13" s="48">
         <f t="shared" si="7"/>
-        <v>0.15775537223749883</v>
+        <v>0.14471942152968742</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="8"/>
-        <v>154.90000000000009</v>
-      </c>
-      <c r="P13" s="50">
+        <v>142.10000000000008</v>
+      </c>
+      <c r="P13" s="48">
         <f t="shared" si="0"/>
-        <v>5.8803447098623028E-2</v>
+        <v>4.8868864055428764E-2</v>
       </c>
       <c r="Q13" s="15"/>
-      <c r="S13" s="51"/>
+      <c r="S13" s="49"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="46">
+      <c r="C14" s="47"/>
+      <c r="D14" s="80">
         <v>113519</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>58</v>
+      <c r="E14" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="27">
         <v>10</v>
@@ -2730,7 +2703,7 @@
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="23">
-        <v>103.96</v>
+        <v>105.54</v>
       </c>
       <c r="K14" s="23">
         <v>98.71</v>
@@ -2740,31 +2713,31 @@
       </c>
       <c r="M14" s="22">
         <f t="shared" si="6"/>
-        <v>1039.5999999999999</v>
-      </c>
-      <c r="N14" s="50">
+        <v>1055.4000000000001</v>
+      </c>
+      <c r="N14" s="48">
         <f t="shared" si="7"/>
-        <v>5.318610069901733E-2</v>
+        <v>6.9192584337959814E-2</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="8"/>
-        <v>52.5</v>
-      </c>
-      <c r="P14" s="50">
+        <v>68.300000000000125</v>
+      </c>
+      <c r="P14" s="48">
         <f t="shared" si="0"/>
-        <v>5.3775566153877977E-2</v>
+        <v>4.5886298153113458E-2</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="S14" s="51"/>
+      <c r="S14" s="49"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="31"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="46">
+      <c r="C15" s="47"/>
+      <c r="D15" s="80">
         <v>113563</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>59</v>
+      <c r="E15" s="80" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="27">
         <v>10</v>
@@ -2778,7 +2751,7 @@
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="23">
-        <v>109.5</v>
+        <v>105.96</v>
       </c>
       <c r="K15" s="23">
         <v>109.215</v>
@@ -2788,35 +2761,35 @@
       </c>
       <c r="M15" s="22">
         <f t="shared" si="6"/>
-        <v>2190</v>
-      </c>
-      <c r="N15" s="50">
+        <v>2119.1999999999998</v>
+      </c>
+      <c r="N15" s="48">
         <f t="shared" si="7"/>
-        <v>2.6095316577392901E-3</v>
+        <v>-2.9803598406812338E-2</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="8"/>
-        <v>5.6999999999999318</v>
-      </c>
-      <c r="P15" s="50">
+        <v>-65.100000000000193</v>
+      </c>
+      <c r="P15" s="48">
         <f t="shared" si="0"/>
-        <v>0.11328250276740361</v>
+        <v>9.2137808457530807E-2</v>
       </c>
       <c r="Q15" s="15"/>
-      <c r="S15" s="51"/>
+      <c r="S15" s="49"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="31">
         <v>2</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <v>44389</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="80">
         <v>128100</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>60</v>
+      <c r="E16" s="80" t="s">
+        <v>58</v>
       </c>
       <c r="F16" s="27">
         <v>10</v>
@@ -2830,45 +2803,45 @@
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="23">
-        <v>92.37</v>
+        <v>101.7</v>
       </c>
       <c r="K16" s="23">
-        <v>78.141000000000005</v>
+        <v>78.131</v>
       </c>
       <c r="L16" s="23">
         <v>10</v>
       </c>
       <c r="M16" s="22">
         <f t="shared" si="2"/>
-        <v>923.7</v>
-      </c>
-      <c r="N16" s="50">
+        <v>1017</v>
+      </c>
+      <c r="N16" s="48">
         <f t="shared" si="3"/>
-        <v>0.18209390716781201</v>
+        <v>0.3016600325095033</v>
       </c>
       <c r="O16" s="22">
         <f t="shared" si="4"/>
-        <v>142.29</v>
-      </c>
-      <c r="P16" s="50">
+        <v>235.69000000000003</v>
+      </c>
+      <c r="P16" s="48">
         <f t="shared" si="0"/>
-        <v>4.7780387126141875E-2</v>
+        <v>4.4216756890009833E-2</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="51"/>
+      <c r="S16" s="49"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B17" s="31">
         <v>3</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="47">
         <v>44397</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="80">
         <v>113589</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>61</v>
+      <c r="E17" s="80" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="27">
         <v>10</v>
@@ -2882,7 +2855,7 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="23">
-        <v>95.47</v>
+        <v>97.65</v>
       </c>
       <c r="K17" s="23">
         <v>94.27</v>
@@ -2892,33 +2865,35 @@
       </c>
       <c r="M17" s="22">
         <f t="shared" si="2"/>
-        <v>954.7</v>
-      </c>
-      <c r="N17" s="50">
+        <v>976.5</v>
+      </c>
+      <c r="N17" s="48">
         <f t="shared" si="3"/>
-        <v>1.2729394292988257E-2</v>
+        <v>3.5854460591916937E-2</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="4"/>
-        <v>12.000000000000028</v>
-      </c>
-      <c r="P17" s="50">
+        <v>33.800000000000097</v>
+      </c>
+      <c r="P17" s="48">
         <f t="shared" si="0"/>
-        <v>4.9383929402758091E-2</v>
+        <v>4.2455912589080241E-2</v>
       </c>
       <c r="Q17" s="15"/>
-      <c r="S17" s="51"/>
+      <c r="S17" s="49"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="31"/>
-      <c r="C18" s="62">
+      <c r="B18" s="59">
+        <v>4</v>
+      </c>
+      <c r="C18" s="58">
         <v>44403</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>72</v>
+      <c r="D18" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="27">
         <v>10</v>
@@ -2932,7 +2907,7 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="23">
-        <v>96.146000000000001</v>
+        <v>98.075000000000003</v>
       </c>
       <c r="K18" s="23">
         <v>97.88</v>
@@ -2942,33 +2917,35 @@
       </c>
       <c r="M18" s="22">
         <f t="shared" si="2"/>
-        <v>961.46</v>
-      </c>
-      <c r="N18" s="50">
+        <v>980.75</v>
+      </c>
+      <c r="N18" s="48">
         <f t="shared" si="3"/>
-        <v>-1.7715570085819317E-2</v>
+        <v>1.9922353902738802E-3</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="4"/>
-        <v>-17.339999999999947</v>
-      </c>
-      <c r="P18" s="50">
+        <v>1.9500000000000739</v>
+      </c>
+      <c r="P18" s="48">
         <f t="shared" si="0"/>
-        <v>4.9733605073400855E-2</v>
+        <v>4.2640692546585195E-2</v>
       </c>
       <c r="Q18" s="15"/>
-      <c r="S18" s="51"/>
+      <c r="S18" s="49"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="31"/>
-      <c r="C19" s="62">
+      <c r="B19" s="59">
+        <v>5</v>
+      </c>
+      <c r="C19" s="58">
         <v>44418</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="80">
         <v>113595</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>76</v>
+      <c r="E19" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="27">
         <v>10</v>
@@ -2982,7 +2959,7 @@
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="23">
-        <v>86.15</v>
+        <v>89.42</v>
       </c>
       <c r="K19" s="23">
         <v>86.13</v>
@@ -2992,69 +2969,83 @@
       </c>
       <c r="M19" s="22">
         <f t="shared" si="2"/>
-        <v>861.5</v>
-      </c>
-      <c r="N19" s="50">
+        <v>894.2</v>
+      </c>
+      <c r="N19" s="48">
         <f t="shared" si="3"/>
-        <v>2.322071287589717E-4</v>
+        <v>3.8198072680831377E-2</v>
       </c>
       <c r="O19" s="22">
         <f>(J19-K19)*L19</f>
-        <v>0.20000000000010232</v>
-      </c>
-      <c r="P19" s="50">
+        <v>32.900000000000063</v>
+      </c>
+      <c r="P19" s="48">
         <f t="shared" si="0"/>
-        <v>4.4562957138866759E-2</v>
+        <v>3.8877703059043062E-2</v>
       </c>
       <c r="Q19" s="15"/>
-      <c r="S19" s="51"/>
+      <c r="S19" s="49"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="59">
+        <v>6</v>
+      </c>
+      <c r="C20" s="58">
+        <v>44425</v>
+      </c>
+      <c r="D20" s="80">
+        <v>113596</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>68</v>
+      </c>
       <c r="F20" s="27">
         <v>10</v>
       </c>
-      <c r="G20" s="40">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="J20" s="23">
+        <v>94.15</v>
+      </c>
+      <c r="K20" s="23">
+        <v>92.44</v>
+      </c>
       <c r="L20" s="23">
         <v>10</v>
       </c>
       <c r="M20" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="50" t="e">
+        <v>941.5</v>
+      </c>
+      <c r="N20" s="48">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.8498485504110863E-2</v>
       </c>
       <c r="O20" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="50">
+        <f>(J20-K20)*L20</f>
+        <v>17.10000000000008</v>
+      </c>
+      <c r="P20" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0934195291980592E-2</v>
       </c>
       <c r="Q20" s="15"/>
-      <c r="S20" s="51"/>
+      <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="59">
+        <v>7</v>
+      </c>
+      <c r="C21" s="58">
+        <v>44427</v>
+      </c>
+      <c r="D21" s="80">
+        <v>110081</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" s="27">
         <v>10</v>
       </c>
@@ -3065,69 +3056,101 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="23">
+        <v>143.01</v>
+      </c>
+      <c r="K21" s="23">
+        <v>100</v>
+      </c>
       <c r="L21" s="23">
         <v>10</v>
       </c>
       <c r="M21" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="50" t="e">
+        <v>1430.1</v>
+      </c>
+      <c r="N21" s="48">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.43009999999999993</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="50">
+        <v>430.09999999999991</v>
+      </c>
+      <c r="P21" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2177368759491702E-2</v>
       </c>
       <c r="Q21" s="15"/>
-      <c r="S21" s="51"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="49"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="27"/>
+      <c r="B22" s="59">
+        <v>8</v>
+      </c>
+      <c r="C22" s="58">
+        <v>44434</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="27">
+        <v>10</v>
+      </c>
+      <c r="G22" s="40">
+        <v>102.7</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="1"/>
+        <v>1027</v>
+      </c>
       <c r="I22" s="27"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="50" t="e">
+      <c r="J22" s="23">
+        <v>103.07</v>
+      </c>
+      <c r="K22" s="23">
+        <v>102.74</v>
+      </c>
+      <c r="L22" s="23">
+        <v>10</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="2"/>
+        <v>1030.6999999999998</v>
+      </c>
+      <c r="N22" s="48">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.211991434689491E-3</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="50">
+        <v>3.2999999999999829</v>
+      </c>
+      <c r="P22" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4812400517731693E-2</v>
       </c>
       <c r="Q22" s="15"/>
-      <c r="S22" s="51"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="49"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23"/>
-      <c r="D23" s="58">
-        <v>128124</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>54</v>
+      <c r="B23" s="59">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="80">
+        <v>127016</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="40"/>
@@ -3137,7 +3160,7 @@
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="50" t="e">
+      <c r="N23" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3145,23 +3168,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q23" s="15"/>
-      <c r="S23" s="51"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="58">
-        <v>128062</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>50</v>
-      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="27"/>
       <c r="G24" s="40"/>
       <c r="H24" s="27"/>
@@ -3170,22 +3189,18 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
-      <c r="N24" s="50"/>
+      <c r="N24" s="48"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="50"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="15"/>
-      <c r="S24" s="51"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="49"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="58">
-        <v>113596</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>51</v>
-      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="27"/>
       <c r="G25" s="40"/>
       <c r="H25" s="27"/>
@@ -3194,22 +3209,18 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
-      <c r="N25" s="50"/>
+      <c r="N25" s="48"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="50"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="15"/>
-      <c r="S25" s="51"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
-      <c r="C26"/>
-      <c r="D26" s="58">
-        <v>127019</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>52</v>
-      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="27"/>
       <c r="G26" s="40"/>
       <c r="H26" s="27"/>
@@ -3218,31 +3229,18 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
-      <c r="N26" s="50" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="50">
-        <f>M26/$M$33</f>
-        <v>0</v>
-      </c>
+      <c r="N26" s="48"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="15"/>
-      <c r="S26" s="51"/>
+      <c r="S26" s="49"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
-      <c r="C27"/>
-      <c r="D27" s="58">
-        <v>113017</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>53</v>
-      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="27"/>
       <c r="G27" s="40"/>
       <c r="H27" s="27"/>
@@ -3251,27 +3249,22 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
-      <c r="N27" s="50" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="50">
-        <f>M27/$M$33</f>
-        <v>0</v>
-      </c>
+      <c r="N27" s="48"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="48"/>
       <c r="Q27" s="15"/>
-      <c r="S27" s="51"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="49"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="B28" s="59"/>
+      <c r="C28"/>
+      <c r="D28" s="54">
+        <v>128124</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="27"/>
       <c r="G28" s="40"/>
       <c r="H28" s="27"/>
@@ -3280,27 +3273,30 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
-      <c r="N28" s="50" t="e">
+      <c r="N28" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="50">
-        <f>M28/$M$33</f>
+      <c r="O28" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="P28" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q28" s="15"/>
-      <c r="S28" s="51"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S28" s="49"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55" t="s">
-        <v>48</v>
+      <c r="B29" s="59"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="54">
+        <v>128062</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="40"/>
@@ -3310,23 +3306,21 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="50" t="e">
+      <c r="N29" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="48"/>
       <c r="Q29" s="15"/>
-      <c r="S29" s="51"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="49"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="14"/>
       <c r="D30" s="54"/>
-      <c r="E30" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="E30" s="54"/>
       <c r="F30" s="27"/>
       <c r="G30" s="40"/>
       <c r="H30" s="27"/>
@@ -3335,20 +3329,25 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="50" t="e">
+      <c r="N30" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="48"/>
       <c r="Q30" s="15"/>
-      <c r="S30" s="51"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="S30" s="49"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="59"/>
+      <c r="C31"/>
+      <c r="D31" s="54">
+        <v>127019</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>50</v>
+      </c>
       <c r="F31" s="27"/>
       <c r="G31" s="40"/>
       <c r="H31" s="27"/>
@@ -3357,79 +3356,220 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
-      <c r="N31" s="50" t="e">
+      <c r="N31" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="48">
+        <f>M31/$M$38</f>
+        <v>0</v>
+      </c>
       <c r="Q31" s="15"/>
-      <c r="S31" s="51"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
+      <c r="S31" s="49"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="59"/>
+      <c r="C32"/>
+      <c r="D32" s="54">
+        <v>113017</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>51</v>
+      </c>
       <c r="F32" s="27"/>
       <c r="G32" s="40"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="23"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="23"/>
-      <c r="N32" s="50" t="e">
+      <c r="N32" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="48">
+        <f>M32/$M$38</f>
+        <v>0</v>
+      </c>
       <c r="Q32" s="15"/>
-      <c r="S32" s="51"/>
-    </row>
-    <row r="33" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
+      <c r="S32" s="49"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="23"/>
+      <c r="P33" s="48">
+        <f>M33/$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15"/>
+      <c r="S33" s="49"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="15"/>
+      <c r="S34" s="49"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="15"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="15"/>
+      <c r="S36" s="49"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83">
+        <v>101.23</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="15"/>
+      <c r="S37" s="49"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="28">
-        <f>SUM(H3:H20)</f>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="28">
+        <f>SUM(H3:H21)</f>
         <v>3959.4800000000005</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="63">
-        <f>SUMPRODUCT((K3:K31)*(L3:L31))</f>
-        <v>18593.259999999998</v>
-      </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="45">
-        <f>SUM(M3:M32)</f>
-        <v>19332.2</v>
-      </c>
-      <c r="N33" s="50">
-        <f>(M33-K33)/K33</f>
-        <v>3.9742358252399114E-2</v>
-      </c>
-      <c r="O33" s="38">
-        <f>SUM(O3:O32)</f>
-        <v>738.94</v>
-      </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="18"/>
-      <c r="S33" s="44"/>
-    </row>
-    <row r="38" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C38" s="53"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="61">
+        <f>SUMPRODUCT((K3:K36)*(L3:L36))</f>
+        <v>21524.959999999999</v>
+      </c>
+      <c r="L38" s="62"/>
+      <c r="M38" s="45">
+        <f>SUM(M3:M37)</f>
+        <v>23000.33</v>
+      </c>
+      <c r="N38" s="48">
+        <f>(M38-K38)/K38</f>
+        <v>6.8542287651173456E-2</v>
+      </c>
+      <c r="O38" s="38">
+        <f>SUM(O3:O37)</f>
+        <v>1475.3700000000001</v>
+      </c>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="18"/>
+      <c r="S38" s="44"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="C43" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K38:L38"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -3441,11 +3581,11 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="O17:O27 N3:O16 N17:N33">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="O17:O32 N3:O16 N17:N38">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3453,12 +3593,12 @@
     <hyperlink ref="D5" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{FB80FD49-7865-4DA8-9D57-52E3EC9CE563}"/>
     <hyperlink ref="D10" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/128132" xr:uid="{A78469C6-D41C-4045-8469-B9418A67BA22}"/>
     <hyperlink ref="D17" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{4CFF5942-971C-4101-9473-68E6A2239D17}"/>
-    <hyperlink ref="D24" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/128062" xr:uid="{484FBE75-3E1C-405B-B4AA-55FDA610D8E9}"/>
-    <hyperlink ref="D25" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/113596" xr:uid="{C12DE3AE-11B6-4D07-B715-F30830DDEF25}"/>
-    <hyperlink ref="D26" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/127019" xr:uid="{5C060248-BA69-4763-8EA3-148B57448DA2}"/>
-    <hyperlink ref="D27" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{365E87B1-DCCE-4AEE-AB38-21BA2D9A8C1B}"/>
-    <hyperlink ref="D23" r:id="rId8" display="https://www.jisilu.cn/data/convert_bond_detail/128124" xr:uid="{25F79F64-6817-4749-9C6E-2941A84362A5}"/>
-    <hyperlink ref="E18" r:id="rId9" display="https://www.jisilu.cn/data/stock/002775" xr:uid="{FD6EB2FD-D40F-49B0-BEEE-FB4E0A659026}"/>
+    <hyperlink ref="D32" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{365E87B1-DCCE-4AEE-AB38-21BA2D9A8C1B}"/>
+    <hyperlink ref="E18" r:id="rId5" display="https://www.jisilu.cn/data/stock/002775" xr:uid="{FD6EB2FD-D40F-49B0-BEEE-FB4E0A659026}"/>
+    <hyperlink ref="D23" r:id="rId6" display="https://www.jisilu.cn/data/stock/000726" xr:uid="{F5B88C83-6625-4AD9-807E-C4D5E8165BC0}"/>
+    <hyperlink ref="D28" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/128124" xr:uid="{25F79F64-6817-4749-9C6E-2941A84362A5}"/>
+    <hyperlink ref="D31" r:id="rId8" display="https://www.jisilu.cn/data/convert_bond_detail/127019" xr:uid="{5C060248-BA69-4763-8EA3-148B57448DA2}"/>
+    <hyperlink ref="D29" r:id="rId9" display="https://www.jisilu.cn/data/convert_bond_detail/128062" xr:uid="{484FBE75-3E1C-405B-B4AA-55FDA610D8E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
@@ -3467,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3480,46 +3620,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="56">
         <v>44400</v>
       </c>
       <c r="B2" s="38">
         <v>475.78</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="57">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
+      <c r="A3" s="56">
         <v>44409</v>
       </c>
       <c r="B3">
         <v>379.53</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="57">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="56">
         <v>44416</v>
       </c>
       <c r="B4" s="38">
         <v>738.74</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="57">
         <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
+        <v>44435</v>
+      </c>
+      <c r="B5">
+        <v>1475.4</v>
+      </c>
+      <c r="C5" s="57">
+        <v>6.8500000000000005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3627,10 +3778,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C922350-E942-415A-8F1A-9CDBEEBCA912}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:W14"/>
+  <dimension ref="B1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3638,13 +3789,7 @@
     <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="19"/>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G1" s="19"/>
       <c r="H1" s="32"/>
       <c r="I1" s="19"/>
@@ -3663,13 +3808,7 @@
       <c r="V1" s="33"/>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G2" s="19"/>
       <c r="H2" s="32"/>
       <c r="I2" s="19"/>
@@ -3688,13 +3827,7 @@
       <c r="V2" s="33"/>
       <c r="W2" s="19"/>
     </row>
-    <row r="3" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="19"/>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G3" s="19"/>
       <c r="H3" s="32"/>
       <c r="I3" s="19"/>
@@ -3713,12 +3846,10 @@
       <c r="V3" s="33"/>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="59" t="s">
-        <v>65</v>
-      </c>
+      <c r="E4" s="55"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="32"/>
@@ -3738,12 +3869,10 @@
       <c r="V4" s="33"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="E5" s="55"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="32"/>
@@ -3763,12 +3892,10 @@
       <c r="V5" s="33"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="59" t="s">
-        <v>67</v>
-      </c>
+      <c r="E6" s="55"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="32"/>
@@ -3788,12 +3915,13 @@
       <c r="V6" s="33"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B7" s="55" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="59" t="s">
-        <v>68</v>
-      </c>
+      <c r="E7" s="55"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="32"/>
@@ -3813,12 +3941,13 @@
       <c r="V7" s="33"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B8" s="55" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="59" t="s">
-        <v>69</v>
-      </c>
+      <c r="E8" s="55"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="32"/>
@@ -3838,12 +3967,13 @@
       <c r="V8" s="33"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="3:23" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B9" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="59" t="s">
-        <v>70</v>
-      </c>
+      <c r="E9" s="55"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="32"/>
@@ -3863,10 +3993,13 @@
       <c r="V9" s="33"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B10" s="55" t="s">
+        <v>74</v>
+      </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="32"/>
@@ -3886,10 +4019,13 @@
       <c r="V10" s="33"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B11" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="32"/>
@@ -3909,7 +4045,10 @@
       <c r="V11" s="33"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B12" s="55" t="s">
+        <v>76</v>
+      </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -3932,7 +4071,10 @@
       <c r="V12" s="33"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B13" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
@@ -3955,7 +4097,10 @@
       <c r="V13" s="33"/>
       <c r="W13" s="19"/>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B14" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="19"/>
@@ -3968,6 +4113,11 @@
       <c r="L14" s="34"/>
       <c r="M14" s="35"/>
     </row>
+    <row r="15" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B15" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3977,33 +4127,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="Control 1">
+        <control shapeId="3084" r:id="rId4" name="Control 12">
           <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4012,22 +4137,72 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="Control 2"/>
+        <control shapeId="3084" r:id="rId4" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="Control 3">
+        <control shapeId="3083" r:id="rId6" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3083" r:id="rId6" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3082" r:id="rId7" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3082" r:id="rId7" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3081" r:id="rId8" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4040,19 +4215,19 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="Control 3"/>
+        <control shapeId="3081" r:id="rId8" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="Control 4">
+        <control shapeId="3080" r:id="rId10" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4065,19 +4240,19 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="Control 4"/>
+        <control shapeId="3080" r:id="rId10" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId11" name="Control 5">
+        <control shapeId="3079" r:id="rId11" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4090,14 +4265,14 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId11" name="Control 5"/>
+        <control shapeId="3079" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4115,7 +4290,7 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4127,7 +4302,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId13" name="Control 7">
+        <control shapeId="3077" r:id="rId13" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4140,19 +4315,19 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId13" name="Control 7"/>
+        <control shapeId="3077" r:id="rId13" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId14" name="Control 8">
+        <control shapeId="3076" r:id="rId14" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4165,19 +4340,19 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId14" name="Control 8"/>
+        <control shapeId="3076" r:id="rId14" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId15" name="Control 9">
+        <control shapeId="3075" r:id="rId15" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4190,20 +4365,20 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId15" name="Control 9"/>
+        <control shapeId="3075" r:id="rId15" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId16" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4212,67 +4387,42 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3082" r:id="rId16" name="Control 10"/>
+        <control shapeId="3074" r:id="rId16" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId17" name="Control 11">
+        <control shapeId="3073" r:id="rId18" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3083" r:id="rId17" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId18" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3084" r:id="rId18" name="Control 12"/>
+        <control shapeId="3073" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -4323,14 +4473,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="81"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
